--- a/tpi/src/test/resources/pregunta.xlsx
+++ b/tpi/src/test/resources/pregunta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tpi2\git\TrabajoPracticoIntegrador1\tpi\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tpi2\git\TrabajoPracticoIntegrador\tpi\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F80A1DE-ECE7-44B6-B2F2-D163992580CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0802D35D-E887-4B10-B6B5-A4309420541D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
   </bookViews>
   <sheets>
     <sheet name="categoria" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>nombre</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>SeccionPrueba</t>
+  </si>
+  <si>
+    <t>codigo</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,60 +554,197 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E557A189-07BD-4DD4-AE4E-E2A608F405F0}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8759312-058C-4473-8FFB-A755D6FBD3C0}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G7" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -612,140 +752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8759312-058C-4473-8FFB-A755D6FBD3C0}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100641454CD1F1E6E428D478A5DC37BACE7" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ef1708d85dca7377bd826ec35b62ca84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xmlns:ns4="7798dcc9-908f-468f-826a-c598f412d6fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="69e720de7d55d3231f99e1910e4c19d8" ns3:_="" ns4:_="">
     <xsd:import namespace="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
@@ -934,32 +941,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46D3E674-3079-48B5-BFCB-0E49FE180026}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7274836D-657B-48C7-97FD-AD88493854E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -976,4 +975,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46D3E674-3079-48B5-BFCB-0E49FE180026}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>